--- a/testData/resource_time_rule_test_data.xlsx
+++ b/testData/resource_time_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_retime_rule" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全选删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你确定要删除该选项吗？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
   <si>
     <t>名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> test_F04_S05_T30_add_001</t>
@@ -245,10 +233,6 @@
   </si>
   <si>
     <t>资源名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -432,10 +416,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>cisco资源可以进行单点登录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>h3c资源可以进行单点登录</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -454,6 +434,26 @@
   </si>
   <si>
     <t>huawei资源受时间规则影响，当前时间不允许连接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择序号为2的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择序号为3的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco匿名资源可以进行单点登录</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XEL4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,40 +980,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="N1" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>2</v>
@@ -1021,17 +1021,17 @@
     </row>
     <row r="2" spans="1:16366">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2" s="17">
         <v>68948</v>
@@ -1058,25 +1058,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16366">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="17">
         <v>68949</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -17462,17 +17462,17 @@
     </row>
     <row r="4" spans="1:16366">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="17">
         <v>68950</v>
@@ -17499,10 +17499,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -17550,7 +17550,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -17619,7 +17619,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
@@ -17637,7 +17637,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -17656,7 +17656,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -17675,7 +17675,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -17756,28 +17756,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>2</v>
@@ -17785,10 +17785,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -17799,18 +17799,18 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="17">
         <v>40824</v>
@@ -17822,24 +17822,24 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17">
         <v>40825</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="17">
         <v>40825</v>
@@ -17849,22 +17849,22 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="17">
         <v>40826</v>
@@ -17874,40 +17874,40 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="17"/>
       <c r="E6" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="17">
         <v>68867</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="17"/>
@@ -17918,20 +17918,20 @@
         <v>-2</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="17"/>
@@ -17946,15 +17946,15 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="17"/>
@@ -17969,15 +17969,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="17"/>
@@ -17992,15 +17992,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="17"/>
@@ -18015,15 +18015,15 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
@@ -18036,19 +18036,19 @@
         <v>28</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="17"/>
@@ -18060,18 +18060,18 @@
         <v>-1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17"/>
@@ -18086,15 +18086,15 @@
         <v>-1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="17"/>
@@ -18109,15 +18109,15 @@
         <v>-1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="17"/>
@@ -18132,15 +18132,15 @@
         <v>-1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="17"/>
@@ -18155,7 +18155,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -18178,7 +18178,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -18186,7 +18186,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -18197,7 +18197,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -18208,10 +18208,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18243,7 +18243,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -18252,20 +18252,41 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -18279,7 +18300,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18294,43 +18315,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27">
       <c r="A2" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27">
       <c r="A3" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27">
       <c r="A4" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
